--- a/individual_case_outputs/harvard/521.xlsx
+++ b/individual_case_outputs/harvard/521.xlsx
@@ -583,7 +583,7 @@
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>cellulitis</t>
+          <t>keg abscess</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -604,7 +604,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>cellulitis</t>
+          <t>gangrene</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -657,7 +657,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>cellulitis</t>
+          <t>skin rash</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
